--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
   <si>
     <t>valore atteso</t>
   </si>
@@ -262,24 +262,6 @@
     <t>'0000000000000045'</t>
   </si>
   <si>
-    <t>'0000000000000046'</t>
-  </si>
-  <si>
-    <t>'0000000000000047'</t>
-  </si>
-  <si>
-    <t>'0000000000000048'</t>
-  </si>
-  <si>
-    <t>'0000000000000049'</t>
-  </si>
-  <si>
-    <t>'0000000000000050'</t>
-  </si>
-  <si>
-    <t>'0000000000000051'</t>
-  </si>
-  <si>
     <t>'0000000000000052'</t>
   </si>
   <si>
@@ -377,6 +359,27 @@
   </si>
   <si>
     <t>current_date</t>
+  </si>
+  <si>
+    <t>'0000000000000076'</t>
+  </si>
+  <si>
+    <t>'0000000000000078'</t>
+  </si>
+  <si>
+    <t>'0000000000000077'</t>
+  </si>
+  <si>
+    <t>'0000000000000080'</t>
+  </si>
+  <si>
+    <t>00000000000000079'</t>
+  </si>
+  <si>
+    <t>'0000000000000081'</t>
+  </si>
+  <si>
+    <t>NOPG000_1</t>
   </si>
 </sst>
 </file>
@@ -895,9 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI68" sqref="AI68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI50" sqref="AI50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -1123,13 +1126,13 @@
         <v>27</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>25</v>
@@ -8088,13 +8091,13 @@
       </c>
     </row>
     <row r="48" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="12">
+      <c r="B48" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8">
         <v>19</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="21">
         <v>0</v>
       </c>
       <c r="E48" s="2"/>
@@ -8129,12 +8132,14 @@
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="4"/>
-      <c r="AI48" s="5"/>
+      <c r="AI48" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000046',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000076',NULL</v>
       </c>
       <c r="AL48" t="str">
         <f t="shared" si="4"/>
@@ -8231,17 +8236,17 @@
       <c r="BI48" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000046',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000076',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
     <row r="49" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="B49" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="8">
         <v>19</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="21">
         <v>1</v>
       </c>
       <c r="E49" s="2"/>
@@ -8276,12 +8281,14 @@
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="5"/>
+      <c r="AI49" s="5">
+        <v>1</v>
+      </c>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000047',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000077',NULL</v>
       </c>
       <c r="AL49" t="str">
         <f t="shared" si="4"/>
@@ -8378,20 +8385,22 @@
       <c r="BI49" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000047',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000077',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
     <row r="50" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B50" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="8">
         <v>19</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="21">
         <v>0</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -8423,12 +8432,16 @@
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="4"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="4"/>
+      <c r="AI50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="AK50" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000048',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000078',NULL</v>
       </c>
       <c r="AL50" t="str">
         <f t="shared" si="4"/>
@@ -8525,17 +8538,17 @@
       <c r="BI50" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000048',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000078',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
     <row r="51" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="B51" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="8">
         <v>20</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="21">
         <v>0</v>
       </c>
       <c r="E51" s="2"/>
@@ -8570,12 +8583,14 @@
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="4"/>
-      <c r="AI51" s="5"/>
+      <c r="AI51" s="5">
+        <v>0</v>
+      </c>
       <c r="AJ51" s="4"/>
       <c r="AK51" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000049',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( 00000000000000079',NULL</v>
       </c>
       <c r="AL51" t="str">
         <f t="shared" si="4"/>
@@ -8672,17 +8687,17 @@
       <c r="BI51" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000049',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( 00000000000000079',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
     <row r="52" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="12">
+      <c r="B52" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="8">
         <v>20</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="21">
         <v>1</v>
       </c>
       <c r="E52" s="2"/>
@@ -8717,12 +8732,14 @@
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="4"/>
-      <c r="AI52" s="5"/>
+      <c r="AI52" s="5">
+        <v>1</v>
+      </c>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000050',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000080',NULL</v>
       </c>
       <c r="AL52" t="str">
         <f t="shared" si="4"/>
@@ -8819,20 +8836,22 @@
       <c r="BI52" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000050',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000080',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
     <row r="53" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="8">
         <v>20</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="21">
         <v>0</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -8864,12 +8883,16 @@
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="4"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="4"/>
+      <c r="AI53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="AK53" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000051',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000081',NULL</v>
       </c>
       <c r="AL53" t="str">
         <f t="shared" si="4"/>
@@ -8966,12 +8989,12 @@
       <c r="BI53" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000051',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000081',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
     <row r="54" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2">
         <v>22</v>
@@ -9120,7 +9143,7 @@
     </row>
     <row r="55" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2">
         <v>22</v>
@@ -9269,7 +9292,7 @@
     </row>
     <row r="56" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C56" s="2">
         <v>22</v>
@@ -9418,7 +9441,7 @@
     </row>
     <row r="57" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2">
         <v>26</v>
@@ -9567,7 +9590,7 @@
     </row>
     <row r="58" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2">
         <v>26</v>
@@ -9716,7 +9739,7 @@
     </row>
     <row r="59" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2">
         <v>26</v>
@@ -9865,7 +9888,7 @@
     </row>
     <row r="60" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2">
         <v>27</v>
@@ -10014,7 +10037,7 @@
     </row>
     <row r="61" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2">
         <v>27</v>
@@ -10163,7 +10186,7 @@
     </row>
     <row r="62" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2">
         <v>27</v>
@@ -10312,7 +10335,7 @@
     </row>
     <row r="63" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2">
         <v>28</v>
@@ -10461,7 +10484,7 @@
     </row>
     <row r="64" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2">
         <v>28</v>
@@ -10610,7 +10633,7 @@
     </row>
     <row r="65" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2">
         <v>28</v>
@@ -10759,7 +10782,7 @@
     </row>
     <row r="66" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B66" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2">
         <v>29</v>
@@ -10789,13 +10812,13 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA66" s="33">
         <v>42735</v>
       </c>
       <c r="AB66" s="34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
@@ -10813,13 +10836,13 @@
     </row>
     <row r="67" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B67" s="32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C67" s="26">
         <v>29</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -10843,13 +10866,13 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AA67" s="33">
         <v>42735</v>
       </c>
       <c r="AB67" s="34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
@@ -10858,7 +10881,7 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="4"/>
       <c r="AI67" s="36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="17" t="str">
@@ -10966,7 +10989,7 @@
     </row>
     <row r="68" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C68" s="26">
         <v>29</v>
@@ -10996,7 +11019,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="28" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AA68" s="27" t="s">
         <v>1</v>
@@ -11117,7 +11140,7 @@
     </row>
     <row r="69" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B69" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C69" s="26">
         <v>29</v>
@@ -11169,7 +11192,7 @@
     </row>
     <row r="70" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B70" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C70" s="26">
         <v>31</v>
@@ -11318,7 +11341,7 @@
     </row>
     <row r="71" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2">
         <v>31</v>
@@ -11467,7 +11490,7 @@
     </row>
     <row r="72" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2">
         <v>31</v>
@@ -11616,7 +11639,7 @@
     </row>
     <row r="73" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2">
         <v>34</v>
@@ -11765,7 +11788,7 @@
     </row>
     <row r="74" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2">
         <v>34</v>
@@ -11914,7 +11937,7 @@
     </row>
     <row r="75" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2">
         <v>34</v>
@@ -12063,7 +12086,7 @@
     </row>
     <row r="76" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2">
         <v>35</v>
@@ -12212,7 +12235,7 @@
     </row>
     <row r="77" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2">
         <v>35</v>
@@ -12361,7 +12384,7 @@
     </row>
     <row r="78" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2">
         <v>35</v>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="117">
   <si>
     <t>valore atteso</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>FLG_PROP_SETTLEMENT</t>
-  </si>
-  <si>
-    <t>NOPG</t>
   </si>
   <si>
     <t>INDICATORE</t>
@@ -224,15 +221,6 @@
   </si>
   <si>
     <t>'0000000000000033'</t>
-  </si>
-  <si>
-    <t>'0000000000000034'</t>
-  </si>
-  <si>
-    <t>'0000000000000035'</t>
-  </si>
-  <si>
-    <t>'0000000000000036'</t>
   </si>
   <si>
     <t>'0000000000000037'</t>
@@ -381,11 +369,14 @@
   <si>
     <t>NOPG000_1</t>
   </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,10 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,7 +571,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -896,54 +883,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI78"/>
+  <dimension ref="A1:BI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI50" sqref="AI50"/>
+      <selection pane="topRight" activeCell="AJ3" sqref="AJ3:AJ75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" style="24" customWidth="1"/>
-    <col min="36" max="36" width="24.140625" customWidth="1"/>
-    <col min="61" max="61" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" style="22" customWidth="1"/>
+    <col min="36" max="36" width="24.109375" customWidth="1"/>
+    <col min="61" max="61" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:61" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,FLG_CRR_DEFAULT</v>
@@ -1049,9 +1036,9 @@
       <c r="AF1"/>
       <c r="AG1"/>
     </row>
-    <row r="2" spans="2:61" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:61" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>29</v>
@@ -1063,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -1126,13 +1113,13 @@
         <v>27</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="31" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>25</v>
@@ -1147,18 +1134,18 @@
         <v>10</v>
       </c>
       <c r="AH2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1197,11 +1184,13 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="5">
+      <c r="AH3" s="5">
         <v>0</v>
       </c>
-      <c r="AJ3" s="4"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK3" s="17" t="str">
         <f>"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AE$1&amp;") VALUES ( " &amp;B3&amp;","&amp;(IF(OR(LEN(F3)=0,F3="missing"),"NULL",F3))</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -1305,9 +1294,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000001',0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1346,98 +1335,100 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="5">
+      <c r="AH4" s="5">
         <v>1</v>
       </c>
-      <c r="AJ4" s="4"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK4" s="17" t="str">
-        <f t="shared" ref="AK4:AK67" si="3">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AE$1&amp;") VALUES ( " &amp;B4&amp;","&amp;(IF(OR(LEN(F4)=0,F4="missing"),"NULL",F4))</f>
+        <f t="shared" ref="AK4:AK64" si="3">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AE$1&amp;") VALUES ( " &amp;B4&amp;","&amp;(IF(OR(LEN(F4)=0,F4="missing"),"NULL",F4))</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000002',1</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" ref="AL4:AL67" si="4">(IF(OR(LEN(G4)=0,G4="missing"),"NULL",G4))</f>
+        <f t="shared" ref="AL4:AL64" si="4">(IF(OR(LEN(G4)=0,G4="missing"),"NULL",G4))</f>
         <v>NULL</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" ref="AM4:AM67" si="5">AL4&amp;","&amp;(IF(OR(LEN(H4)=0,H4="missing"),"NULL",H4))</f>
+        <f t="shared" ref="AM4:AM64" si="5">AL4&amp;","&amp;(IF(OR(LEN(H4)=0,H4="missing"),"NULL",H4))</f>
         <v>NULL,NULL</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" ref="AN4:AN67" si="6">AM4&amp;","&amp;(IF(OR(LEN(I4)=0,I4="missing"),"NULL",I4))</f>
+        <f t="shared" ref="AN4:AN64" si="6">AM4&amp;","&amp;(IF(OR(LEN(I4)=0,I4="missing"),"NULL",I4))</f>
         <v>NULL,NULL,NULL</v>
       </c>
       <c r="AO4" t="str">
-        <f t="shared" ref="AO4:AO67" si="7">AN4&amp;","&amp;(IF(OR(LEN(J4)=0,J4="missing"),"NULL",J4))</f>
+        <f t="shared" ref="AO4:AO64" si="7">AN4&amp;","&amp;(IF(OR(LEN(J4)=0,J4="missing"),"NULL",J4))</f>
         <v>NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AP4" t="str">
-        <f t="shared" ref="AP4:AP67" si="8">AO4&amp;","&amp;(IF(OR(LEN(K4)=0,K4="missing"),"NULL",K4))</f>
+        <f t="shared" ref="AP4:AP64" si="8">AO4&amp;","&amp;(IF(OR(LEN(K4)=0,K4="missing"),"NULL",K4))</f>
         <v>NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AQ4" t="str">
-        <f t="shared" ref="AQ4:AQ67" si="9">AP4&amp;","&amp;(IF(OR(LEN(L4)=0,L4="missing"),"NULL",L4))</f>
+        <f t="shared" ref="AQ4:AQ64" si="9">AP4&amp;","&amp;(IF(OR(LEN(L4)=0,L4="missing"),"NULL",L4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AR4" t="str">
-        <f t="shared" ref="AR4:AR67" si="10">AQ4&amp;","&amp;(IF(OR(LEN(M4)=0,M4="missing"),"NULL",M4))</f>
+        <f t="shared" ref="AR4:AR64" si="10">AQ4&amp;","&amp;(IF(OR(LEN(M4)=0,M4="missing"),"NULL",M4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AS4" t="str">
-        <f t="shared" ref="AS4:AS67" si="11">AR4&amp;","&amp;(IF(OR(LEN(N4)=0,N4="missing"),"NULL",N4))</f>
+        <f t="shared" ref="AS4:AS64" si="11">AR4&amp;","&amp;(IF(OR(LEN(N4)=0,N4="missing"),"NULL",N4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AT4" t="str">
-        <f t="shared" ref="AT4:AT67" si="12">AS4&amp;","&amp;(IF(OR(LEN(O4)=0,O4="missing"),"NULL",O4))</f>
+        <f t="shared" ref="AT4:AT64" si="12">AS4&amp;","&amp;(IF(OR(LEN(O4)=0,O4="missing"),"NULL",O4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AU4" t="str">
-        <f t="shared" ref="AU4:AU67" si="13">AT4&amp;","&amp;(IF(OR(LEN(P4)=0,P4="missing"),"NULL",P4))</f>
+        <f t="shared" ref="AU4:AU64" si="13">AT4&amp;","&amp;(IF(OR(LEN(P4)=0,P4="missing"),"NULL",P4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AV4" t="str">
-        <f t="shared" ref="AV4:AV67" si="14">AU4&amp;","&amp;(IF(OR(LEN(Q4)=0,Q4="missing"),"NULL",Q4))</f>
+        <f t="shared" ref="AV4:AV64" si="14">AU4&amp;","&amp;(IF(OR(LEN(Q4)=0,Q4="missing"),"NULL",Q4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AW4" t="str">
-        <f t="shared" ref="AW4:AW67" si="15">AV4&amp;","&amp;(IF(OR(LEN(R4)=0,R4="missing"),"NULL",R4))</f>
+        <f t="shared" ref="AW4:AW64" si="15">AV4&amp;","&amp;(IF(OR(LEN(R4)=0,R4="missing"),"NULL",R4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AX4" t="str">
-        <f t="shared" ref="AX4:AX67" si="16">AW4&amp;","&amp;(IF(OR(LEN(S4)=0,S4="missing"),"NULL",S4))</f>
+        <f t="shared" ref="AX4:AX64" si="16">AW4&amp;","&amp;(IF(OR(LEN(S4)=0,S4="missing"),"NULL",S4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AY4" t="str">
-        <f t="shared" ref="AY4:AY67" si="17">AX4&amp;","&amp;(IF(OR(LEN(T4)=0,T4="missing"),"NULL",T4))</f>
+        <f t="shared" ref="AY4:AY64" si="17">AX4&amp;","&amp;(IF(OR(LEN(T4)=0,T4="missing"),"NULL",T4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AZ4" t="str">
-        <f t="shared" ref="AZ4:AZ67" si="18">AY4&amp;","&amp;(IF(OR(LEN(U4)=0,U4="missing"),"NULL",U4))</f>
+        <f t="shared" ref="AZ4:AZ64" si="18">AY4&amp;","&amp;(IF(OR(LEN(U4)=0,U4="missing"),"NULL",U4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA4" t="str">
-        <f t="shared" ref="BA4:BA67" si="19">AZ4&amp;","&amp;(IF(OR(LEN(V4)=0,V4="missing"),"NULL",V4))</f>
+        <f t="shared" ref="BA4:BA64" si="19">AZ4&amp;","&amp;(IF(OR(LEN(V4)=0,V4="missing"),"NULL",V4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB4" t="str">
-        <f t="shared" ref="BB4:BB67" si="20">BA4&amp;","&amp;(IF(OR(LEN(W4)=0,W4="missing"),"NULL",W4))</f>
+        <f t="shared" ref="BB4:BB64" si="20">BA4&amp;","&amp;(IF(OR(LEN(W4)=0,W4="missing"),"NULL",W4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC4" t="str">
-        <f t="shared" ref="BC4:BC67" si="21">BB4&amp;","&amp;(IF(OR(LEN(X4)=0,X4="missing"),"NULL",X4))</f>
+        <f t="shared" ref="BC4:BC64" si="21">BB4&amp;","&amp;(IF(OR(LEN(X4)=0,X4="missing"),"NULL",X4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD4" t="str">
-        <f t="shared" ref="BD4:BD67" si="22">BC4&amp;","&amp;(IF(OR(LEN(Y4)=0,Y4="missing"),"NULL",Y4))</f>
+        <f t="shared" ref="BD4:BD64" si="22">BC4&amp;","&amp;(IF(OR(LEN(Y4)=0,Y4="missing"),"NULL",Y4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE4" t="str">
-        <f t="shared" ref="BE4:BE67" si="23">BD4&amp;","&amp;(IF(OR(LEN(Z4)=0,Z4="missing"),"NULL",Z4))</f>
+        <f t="shared" ref="BE4:BE64" si="23">BD4&amp;","&amp;(IF(OR(LEN(Z4)=0,Z4="missing"),"NULL",Z4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF4" t="str">
-        <f t="shared" ref="BF4:BF67" si="24">BE4&amp;","&amp;(IF(OR(LEN(AC4)=0,AC4="missing"),"NULL",AC4))</f>
+        <f t="shared" ref="BF4:BF64" si="24">BE4&amp;","&amp;(IF(OR(LEN(AC4)=0,AC4="missing"),"NULL",AC4))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG4" t="str">
@@ -1449,14 +1440,14 @@
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI4" s="19" t="str">
-        <f t="shared" ref="BI4:BI67" si="26">AK4&amp;","&amp;BH4&amp;"); "</f>
+        <f t="shared" ref="BI4:BI64" si="26">AK4&amp;","&amp;BH4&amp;"); "</f>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000002',1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1495,11 +1486,13 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="5">
+      <c r="AH5" s="5">
         <v>0</v>
       </c>
-      <c r="AJ5" s="4"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK5" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -1594,7 +1587,7 @@
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH5" s="18" t="str">
-        <f t="shared" ref="BH5:BH68" si="27">BG5&amp;","&amp;(IF(OR(LEN(AE5)=0,AE5="missing"),"NULL",AE5))</f>
+        <f t="shared" ref="BH5:BH65" si="27">BG5&amp;","&amp;(IF(OR(LEN(AE5)=0,AE5="missing"),"NULL",AE5))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI5" s="19" t="str">
@@ -1603,9 +1596,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000003',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
@@ -1644,11 +1637,13 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="5">
+      <c r="AH6" s="5">
         <v>0</v>
       </c>
-      <c r="AJ6" s="4"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -1752,9 +1747,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000004',NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -1793,11 +1788,13 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="5">
+      <c r="AH7" s="5">
         <v>1</v>
       </c>
-      <c r="AJ7" s="4"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK7" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -1901,9 +1898,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000005',NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -1942,11 +1939,13 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="5">
+      <c r="AH8" s="5">
         <v>0</v>
       </c>
-      <c r="AJ8" s="4"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK8" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2050,9 +2049,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000006',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -2091,11 +2090,13 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="5">
+      <c r="AH9" s="5">
         <v>0</v>
       </c>
-      <c r="AJ9" s="4"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK9" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2199,9 +2200,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000007',NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -2240,11 +2241,13 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="5">
+      <c r="AH10" s="5">
         <v>1</v>
       </c>
-      <c r="AJ10" s="4"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK10" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2348,9 +2351,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000008',NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -2389,11 +2392,13 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="5">
+      <c r="AH11" s="5">
         <v>0</v>
       </c>
-      <c r="AJ11" s="4"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK11" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2497,9 +2502,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000009',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -2538,11 +2543,13 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="5">
+      <c r="AH12" s="5">
         <v>0</v>
       </c>
-      <c r="AJ12" s="4"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK12" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2646,9 +2653,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000010',NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -2687,11 +2694,13 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="5">
+      <c r="AH13" s="5">
         <v>1</v>
       </c>
-      <c r="AJ13" s="4"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK13" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2795,9 +2804,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000011',NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="14" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -2836,11 +2845,13 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="5">
+      <c r="AH14" s="5">
         <v>0</v>
       </c>
-      <c r="AJ14" s="4"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK14" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -2944,9 +2955,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000012',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="15" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
         <v>11</v>
@@ -2985,11 +2996,13 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="5">
+      <c r="AH15" s="5">
         <v>0</v>
       </c>
-      <c r="AJ15" s="4"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK15" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -3093,9 +3106,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000013',NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="16" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
@@ -3134,11 +3147,13 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="5">
+      <c r="AH16" s="5">
         <v>1</v>
       </c>
-      <c r="AJ16" s="4"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK16" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -3242,9 +3257,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000014',NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>11</v>
@@ -3283,11 +3298,13 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="5">
+      <c r="AH17" s="5">
         <v>0</v>
       </c>
-      <c r="AJ17" s="4"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK17" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -3391,9 +3408,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000015',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -3445,11 +3462,13 @@
         <f t="shared" ref="AG18:AG26" si="29">MAX(M18,N18)</f>
         <v>700</v>
       </c>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="5">
+      <c r="AH18" s="5">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AJ18" s="4"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK18" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -3553,9 +3572,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000016',NULL,NULL,NULL,NULL,NULL,1000,800,700,600,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -3608,12 +3627,14 @@
         <f t="shared" si="29"/>
         <v>700</v>
       </c>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="5">
+      <c r="AH19" s="5">
         <v>100</v>
       </c>
-      <c r="AJ19" s="4" t="s">
+      <c r="AI19" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK19" s="17" t="str">
         <f t="shared" si="3"/>
@@ -3718,9 +3739,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000017',NULL,NULL,NULL,NULL,NULL,0,1000,700,600,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2">
         <v>12</v>
@@ -3773,12 +3794,14 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="5">
+      <c r="AH20" s="5">
         <v>100</v>
       </c>
-      <c r="AJ20" s="4" t="s">
+      <c r="AI20" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK20" s="17" t="str">
         <f t="shared" si="3"/>
@@ -3870,7 +3893,7 @@
         <v>NULL,NULL,NULL,NULL,0,1000,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG20" t="str">
-        <f t="shared" ref="BG20:BG78" si="30">BF20&amp;","&amp;(IF(OR(LEN(AD20)=0,AD20="missing"),"NULL",AD20))</f>
+        <f t="shared" ref="BG20:BG75" si="30">BF20&amp;","&amp;(IF(OR(LEN(AD20)=0,AD20="missing"),"NULL",AD20))</f>
         <v>NULL,NULL,NULL,NULL,0,1000,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH20" s="18" t="str">
@@ -3883,9 +3906,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000018',NULL,NULL,NULL,NULL,NULL,0,1000,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2">
         <v>12</v>
@@ -3939,12 +3962,14 @@
         <f t="shared" si="29"/>
         <v>700</v>
       </c>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="5">
+      <c r="AH21" s="5">
         <v>0</v>
       </c>
-      <c r="AJ21" s="4" t="s">
+      <c r="AI21" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK21" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4049,9 +4074,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000019',NULL,NULL,NULL,NULL,NULL,1000,1000,700,600,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>12</v>
@@ -4104,12 +4129,14 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="5">
+      <c r="AH22" s="5">
         <v>0</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AI22" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK22" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4214,9 +4241,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000020',NULL,NULL,NULL,NULL,NULL,1000,1000,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
         <v>12</v>
@@ -4269,12 +4296,14 @@
         <f t="shared" si="29"/>
         <v>-10</v>
       </c>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="21" t="s">
+      <c r="AH23" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ23" s="4" t="s">
+      <c r="AI23" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK23" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4379,9 +4408,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000021',NULL,NULL,NULL,NULL,NULL,1000,700,-10,-70,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
@@ -4434,12 +4463,14 @@
         <f t="shared" si="29"/>
         <v>-10</v>
       </c>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="21" t="s">
+      <c r="AH24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ24" s="4" t="s">
+      <c r="AI24" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK24" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4544,9 +4575,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000022',NULL,NULL,NULL,NULL,NULL,600,600,-10,-70,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>12</v>
@@ -4599,12 +4630,14 @@
         <f t="shared" si="29"/>
         <v>-10</v>
       </c>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="21" t="s">
+      <c r="AH25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ25" s="4" t="s">
+      <c r="AI25" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK25" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4709,9 +4742,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000023',NULL,NULL,NULL,NULL,NULL,-1000,700,-10,-70,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>12</v>
@@ -4764,12 +4797,14 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="21" t="s">
+      <c r="AH26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ26" s="4" t="s">
+      <c r="AI26" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK26" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4874,17 +4909,17 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000024',NULL,NULL,NULL,NULL,NULL,1000,700,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="29">
+        <v>58</v>
+      </c>
+      <c r="C27" s="27">
         <v>12</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2"/>
@@ -4928,12 +4963,14 @@
       <c r="AG27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="21" t="s">
+      <c r="AH27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ27" s="4" t="s">
+      <c r="AI27" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK27" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5038,17 +5075,17 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000025',NULL,NULL,NULL,NULL,NULL,1000,700,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="29">
+        <v>59</v>
+      </c>
+      <c r="C28" s="27">
         <v>12</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2"/>
@@ -5092,12 +5129,14 @@
       <c r="AG28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="21" t="s">
+      <c r="AH28" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ28" s="4" t="s">
+      <c r="AI28" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK28" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5202,18 +5241,18 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000026',NULL,NULL,NULL,NULL,NULL,800,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="29">
+        <v>60</v>
+      </c>
+      <c r="C29" s="27">
         <v>12</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="11"/>
@@ -5250,19 +5289,21 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="29">
+      <c r="AF29" s="27">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="21" t="s">
+      <c r="AH29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ29" s="4" t="s">
+      <c r="AI29" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK29" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5367,17 +5408,17 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000027',NULL,NULL,NULL,NULL,NULL,1000,1000,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="29">
+        <v>61</v>
+      </c>
+      <c r="C30" s="27">
         <v>12</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2"/>
@@ -5421,12 +5462,14 @@
         <f>MAX(M30,N30)</f>
         <v>700</v>
       </c>
-      <c r="AH30" s="4"/>
+      <c r="AH30" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK30" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5531,9 +5574,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000028',NULL,NULL,NULL,NULL,NULL,NULL,NULL,700,600,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2">
         <v>12</v>
@@ -5585,12 +5628,14 @@
         <f>MAX(M31,N31)</f>
         <v>-10</v>
       </c>
-      <c r="AH31" s="4"/>
+      <c r="AH31" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK31" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5695,9 +5740,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000029',NULL,NULL,NULL,NULL,NULL,NULL,NULL,-10,-70,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2">
         <v>12</v>
@@ -5749,12 +5794,14 @@
         <f>MAX(M32,N32)</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="4"/>
+      <c r="AH32" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK32" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5859,9 +5906,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000030',NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,-30,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="33" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2">
         <v>13</v>
@@ -5900,11 +5947,13 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="5">
+      <c r="AH33" s="5">
         <v>0</v>
       </c>
-      <c r="AJ33" s="4"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK33" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -6008,9 +6057,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000031',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="34" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2">
         <v>13</v>
@@ -6049,11 +6098,13 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="5">
+      <c r="AH34" s="5">
         <v>1</v>
       </c>
-      <c r="AJ34" s="4"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK34" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -6157,9 +6208,9 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000032',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="35" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2">
         <v>13</v>
@@ -6198,11 +6249,13 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="5">
+      <c r="AH35" s="5">
         <v>0</v>
       </c>
-      <c r="AJ35" s="4"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK35" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
@@ -6306,14 +6359,14 @@
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000033',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="36" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="12">
-        <v>14</v>
-      </c>
-      <c r="D36" s="23">
+    <row r="36" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2">
+        <v>15</v>
+      </c>
+      <c r="D36" s="21">
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
@@ -6327,10 +6380,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2">
         <v>0</v>
       </c>
-      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -6347,13 +6400,17 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
-      <c r="AH36" s="4"/>
+      <c r="AH36" s="5">
+        <v>0</v>
+      </c>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="4"/>
+      <c r="AJ36" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK36" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000034',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000037',NULL</v>
       </c>
       <c r="AL36" t="str">
         <f t="shared" si="4"/>
@@ -6393,74 +6450,74 @@
       </c>
       <c r="AU36" t="str">
         <f t="shared" si="13"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AV36" t="str">
         <f t="shared" si="14"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="AW36" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="AX36" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="AY36" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="AZ36" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA36" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB36" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC36" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD36" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE36" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF36" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG36" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH36" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI36" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000034',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000037',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="37" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="12">
-        <v>14</v>
-      </c>
-      <c r="D37" s="23">
+    <row r="37" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15</v>
+      </c>
+      <c r="D37" s="21">
         <v>1</v>
       </c>
       <c r="E37" s="2"/>
@@ -6474,10 +6531,10 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2">
         <v>1</v>
       </c>
-      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -6494,13 +6551,17 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="4"/>
+      <c r="AH37" s="5">
+        <v>1</v>
+      </c>
       <c r="AI37" s="5"/>
-      <c r="AJ37" s="4"/>
+      <c r="AJ37" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK37" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000035',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000038',NULL</v>
       </c>
       <c r="AL37" t="str">
         <f t="shared" si="4"/>
@@ -6540,79 +6601,77 @@
       </c>
       <c r="AU37" t="str">
         <f t="shared" si="13"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AV37" t="str">
         <f t="shared" si="14"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="AW37" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="AX37" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="AY37" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="AZ37" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA37" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB37" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC37" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD37" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE37" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF37" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG37" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH37" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI37" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000035',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000038',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="38" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="12">
-        <v>14</v>
-      </c>
-      <c r="D38" s="23">
+    <row r="38" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+      <c r="D38" s="21">
         <v>0</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -6623,10 +6682,10 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2" t="s">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -6643,13 +6702,17 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
-      <c r="AH38" s="4"/>
+      <c r="AH38" s="5">
+        <v>0</v>
+      </c>
       <c r="AI38" s="5"/>
-      <c r="AJ38" s="4"/>
+      <c r="AJ38" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK38" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000036',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000039',NULL</v>
       </c>
       <c r="AL38" t="str">
         <f t="shared" si="4"/>
@@ -6746,15 +6809,15 @@
       <c r="BI38" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000036',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000039',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="39" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="21">
         <v>0</v>
@@ -6771,10 +6834,10 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2">
         <v>0</v>
       </c>
-      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -6790,15 +6853,17 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="5">
+      <c r="AH39" s="5">
         <v>0</v>
       </c>
-      <c r="AJ39" s="4"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK39" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000037',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000040',NULL</v>
       </c>
       <c r="AL39" t="str">
         <f t="shared" si="4"/>
@@ -6842,68 +6907,68 @@
       </c>
       <c r="AV39" t="str">
         <f t="shared" si="14"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AW39" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="AX39" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="AY39" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="AZ39" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BA39" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB39" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC39" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD39" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE39" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF39" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG39" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH39" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI39" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000037',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000040',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="40" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" s="21">
         <v>1</v>
@@ -6920,10 +6985,10 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
         <v>1</v>
       </c>
-      <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -6939,15 +7004,17 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="5">
+      <c r="AH40" s="5">
         <v>1</v>
       </c>
-      <c r="AJ40" s="4"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK40" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000038',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000041',NULL</v>
       </c>
       <c r="AL40" t="str">
         <f t="shared" si="4"/>
@@ -6991,68 +7058,68 @@
       </c>
       <c r="AV40" t="str">
         <f t="shared" si="14"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AW40" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="AX40" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="AY40" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="AZ40" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BA40" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB40" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC40" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD40" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE40" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF40" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG40" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH40" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI40" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000038',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000041',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="41" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="21">
         <v>0</v>
@@ -7069,10 +7136,10 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -7088,15 +7155,17 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="5">
+      <c r="AH41" s="5">
         <v>0</v>
       </c>
-      <c r="AJ41" s="4"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK41" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000039',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000042',NULL</v>
       </c>
       <c r="AL41" t="str">
         <f t="shared" si="4"/>
@@ -7193,15 +7262,15 @@
       <c r="BI41" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000039',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000042',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="42" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="21">
         <v>0</v>
@@ -7219,10 +7288,10 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -7237,15 +7306,17 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="5">
+      <c r="AH42" s="5">
         <v>0</v>
       </c>
-      <c r="AJ42" s="4"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK42" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000040',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000043',NULL</v>
       </c>
       <c r="AL42" t="str">
         <f t="shared" si="4"/>
@@ -7293,64 +7364,64 @@
       </c>
       <c r="AW42" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AX42" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="AY42" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="AZ42" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BA42" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BB42" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC42" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD42" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE42" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF42" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG42" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH42" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI42" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000040',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000043',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="43" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="21">
         <v>1</v>
@@ -7368,10 +7439,10 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2">
         <v>1</v>
       </c>
-      <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -7386,15 +7457,17 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="5">
+      <c r="AH43" s="5">
         <v>1</v>
       </c>
-      <c r="AJ43" s="4"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK43" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000041',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000044',NULL</v>
       </c>
       <c r="AL43" t="str">
         <f t="shared" si="4"/>
@@ -7442,64 +7515,64 @@
       </c>
       <c r="AW43" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AX43" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="AY43" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="AZ43" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BA43" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BB43" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC43" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD43" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE43" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF43" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG43" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH43" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI43" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000041',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000044',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="44" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -7517,10 +7590,10 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
+      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -7535,15 +7608,17 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="5">
+      <c r="AH44" s="5">
         <v>0</v>
       </c>
-      <c r="AJ44" s="4"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK44" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000042',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000045',NULL</v>
       </c>
       <c r="AL44" t="str">
         <f t="shared" si="4"/>
@@ -7640,15 +7715,15 @@
       <c r="BI44" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000042',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000045',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="45" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="2">
-        <v>18</v>
+    <row r="45" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="8">
+        <v>19</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -7667,10 +7742,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2">
+      <c r="S45" s="2"/>
+      <c r="T45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
@@ -7684,15 +7759,17 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="5">
+      <c r="AH45" s="5">
         <v>0</v>
       </c>
-      <c r="AJ45" s="4"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK45" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000043',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000076',NULL</v>
       </c>
       <c r="AL45" t="str">
         <f t="shared" si="4"/>
@@ -7744,60 +7821,60 @@
       </c>
       <c r="AX45" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AY45" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="AZ45" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BA45" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BB45" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BC45" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD45" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE45" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF45" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG45" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH45" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI45" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000043',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000076',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="46" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2">
-        <v>18</v>
+    <row r="46" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B46" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="8">
+        <v>19</v>
       </c>
       <c r="D46" s="21">
         <v>1</v>
@@ -7816,10 +7893,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2">
+      <c r="S46" s="2"/>
+      <c r="T46" s="2">
         <v>1</v>
       </c>
-      <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -7833,15 +7910,17 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="4"/>
-      <c r="AI46" s="5">
+      <c r="AH46" s="5">
         <v>1</v>
       </c>
-      <c r="AJ46" s="4"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK46" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000044',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000077',NULL</v>
       </c>
       <c r="AL46" t="str">
         <f t="shared" si="4"/>
@@ -7893,65 +7972,67 @@
       </c>
       <c r="AX46" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AY46" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="AZ46" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BA46" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BB46" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BC46" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD46" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE46" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF46" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG46" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH46" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI46" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000044',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000077',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="47" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="2">
-        <v>18</v>
+    <row r="47" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="8">
+        <v>19</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="27" t="s">
+        <v>115</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -7965,10 +8046,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2" t="s">
+      <c r="S47" s="2"/>
+      <c r="T47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
@@ -7982,15 +8063,19 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="5">
+      <c r="AH47" s="5">
         <v>0</v>
       </c>
-      <c r="AJ47" s="4"/>
+      <c r="AI47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ47" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK47" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000045',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000078',NULL</v>
       </c>
       <c r="AL47" t="str">
         <f t="shared" si="4"/>
@@ -8087,20 +8172,20 @@
       <c r="BI47" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000045',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000078',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="48" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
+    <row r="48" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="21">
         <v>0</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -8115,10 +8200,10 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="2">
+      <c r="T48" s="2"/>
+      <c r="U48" s="2">
         <v>0</v>
       </c>
-      <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -8131,15 +8216,17 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="4"/>
-      <c r="AI48" s="5">
+      <c r="AH48" s="5">
         <v>0</v>
       </c>
-      <c r="AJ48" s="4"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK48" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000076',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( 00000000000000079',NULL</v>
       </c>
       <c r="AL48" t="str">
         <f t="shared" si="4"/>
@@ -8195,61 +8282,61 @@
       </c>
       <c r="AY48" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AZ48" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BA48" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BB48" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BC48" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BD48" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE48" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF48" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG48" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH48" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI48" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000076',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( 00000000000000079',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="49" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
-        <v>115</v>
+    <row r="49" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B49" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="C49" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="21">
         <v>1</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -8264,10 +8351,10 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2">
+      <c r="T49" s="2"/>
+      <c r="U49" s="2">
         <v>1</v>
       </c>
-      <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -8280,15 +8367,17 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="4"/>
-      <c r="AI49" s="5">
+      <c r="AH49" s="5">
         <v>1</v>
       </c>
-      <c r="AJ49" s="4"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK49" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000077',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000080',NULL</v>
       </c>
       <c r="AL49" t="str">
         <f t="shared" si="4"/>
@@ -8344,62 +8433,62 @@
       </c>
       <c r="AY49" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AZ49" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BA49" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BB49" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BC49" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BD49" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE49" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF49" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG49" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH49" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI49" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000077',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000080',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="50" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
+    <row r="50" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B50" s="30" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>119</v>
+      <c r="E50" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -8415,10 +8504,10 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -8431,17 +8520,19 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="4"/>
-      <c r="AI50" s="5">
+      <c r="AH50" s="5">
         <v>0</v>
       </c>
-      <c r="AJ50" s="4" t="s">
-        <v>119</v>
+      <c r="AI50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ50" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK50" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000078',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000081',NULL</v>
       </c>
       <c r="AL50" t="str">
         <f t="shared" si="4"/>
@@ -8538,15 +8629,15 @@
       <c r="BI50" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000078',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000081',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="51" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="8">
-        <v>20</v>
+    <row r="51" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2">
+        <v>22</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -8567,10 +8658,10 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="2">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2">
         <v>0</v>
       </c>
-      <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -8582,15 +8673,17 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="4"/>
-      <c r="AI51" s="5">
+      <c r="AH51" s="5">
         <v>0</v>
       </c>
-      <c r="AJ51" s="4"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK51" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( 00000000000000079',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000052',NULL</v>
       </c>
       <c r="AL51" t="str">
         <f t="shared" si="4"/>
@@ -8650,52 +8743,52 @@
       </c>
       <c r="AZ51" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA51" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BB51" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BC51" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BD51" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BE51" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF51" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG51" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH51" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI51" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( 00000000000000079',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000052',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="52" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="8">
-        <v>20</v>
+    <row r="52" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2">
+        <v>22</v>
       </c>
       <c r="D52" s="21">
         <v>1</v>
@@ -8716,10 +8809,10 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2">
         <v>1</v>
       </c>
-      <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
@@ -8731,15 +8824,17 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
-      <c r="AH52" s="4"/>
-      <c r="AI52" s="5">
+      <c r="AH52" s="5">
         <v>1</v>
       </c>
-      <c r="AJ52" s="4"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK52" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000080',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000053',NULL</v>
       </c>
       <c r="AL52" t="str">
         <f t="shared" si="4"/>
@@ -8799,59 +8894,57 @@
       </c>
       <c r="AZ52" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA52" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BB52" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BC52" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BD52" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BE52" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF52" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG52" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH52" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI52" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000080',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000053',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="53" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="8">
-        <v>20</v>
+    <row r="53" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2">
+        <v>22</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -8867,10 +8960,10 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="2" t="s">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
@@ -8882,17 +8975,17 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="5">
+      <c r="AH53" s="5">
         <v>0</v>
       </c>
-      <c r="AJ53" s="4" t="s">
-        <v>119</v>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AK53" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000081',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000054',NULL</v>
       </c>
       <c r="AL53" t="str">
         <f t="shared" si="4"/>
@@ -8989,15 +9082,15 @@
       <c r="BI53" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000081',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000054',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="54" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -9019,10 +9112,10 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
-      <c r="V54" s="2">
+      <c r="V54" s="2"/>
+      <c r="W54" s="2">
         <v>0</v>
       </c>
-      <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
@@ -9033,15 +9126,17 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="4"/>
-      <c r="AI54" s="5">
+      <c r="AH54" s="5">
         <v>0</v>
       </c>
-      <c r="AJ54" s="4"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK54" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000052',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000055',NULL</v>
       </c>
       <c r="AL54" t="str">
         <f t="shared" si="4"/>
@@ -9105,48 +9200,48 @@
       </c>
       <c r="BA54" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB54" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BC54" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BD54" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BE54" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BF54" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG54" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH54" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI54" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000052',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000055',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="55" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D55" s="21">
         <v>1</v>
@@ -9168,10 +9263,10 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="V55" s="2">
+      <c r="V55" s="2"/>
+      <c r="W55" s="2">
         <v>1</v>
       </c>
-      <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
@@ -9182,15 +9277,17 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="5">
+      <c r="AH55" s="5">
         <v>1</v>
       </c>
-      <c r="AJ55" s="4"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK55" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000053',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000056',NULL</v>
       </c>
       <c r="AL55" t="str">
         <f t="shared" si="4"/>
@@ -9254,48 +9351,48 @@
       </c>
       <c r="BA55" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB55" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BC55" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BD55" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BE55" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BF55" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG55" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH55" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI55" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000053',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000056',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="56" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D56" s="21">
         <v>0</v>
@@ -9317,10 +9414,10 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-      <c r="V56" s="2" t="s">
+      <c r="V56" s="2"/>
+      <c r="W56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
@@ -9331,15 +9428,17 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
-      <c r="AH56" s="4"/>
-      <c r="AI56" s="5">
+      <c r="AH56" s="5">
         <v>0</v>
       </c>
-      <c r="AJ56" s="4"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK56" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000054',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000057',NULL</v>
       </c>
       <c r="AL56" t="str">
         <f t="shared" si="4"/>
@@ -9436,15 +9535,15 @@
       <c r="BI56" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000054',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000057',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="57" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="21">
         <v>0</v>
@@ -9467,10 +9566,10 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="2">
+      <c r="W57" s="2"/>
+      <c r="X57" s="2">
         <v>0</v>
       </c>
-      <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
@@ -9480,15 +9579,17 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
-      <c r="AH57" s="4"/>
-      <c r="AI57" s="5">
+      <c r="AH57" s="5">
         <v>0</v>
       </c>
-      <c r="AJ57" s="4"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK57" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000055',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000058',NULL</v>
       </c>
       <c r="AL57" t="str">
         <f t="shared" si="4"/>
@@ -9556,44 +9657,44 @@
       </c>
       <c r="BB57" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC57" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BD57" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BE57" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BF57" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BG57" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH57" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI57" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000055',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000058',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="58" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="21">
         <v>1</v>
@@ -9616,10 +9717,10 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="2">
+      <c r="W58" s="2"/>
+      <c r="X58" s="2">
         <v>1</v>
       </c>
-      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
@@ -9629,15 +9730,17 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="5">
+      <c r="AH58" s="5">
         <v>1</v>
       </c>
-      <c r="AJ58" s="4"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK58" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000056',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000059',NULL</v>
       </c>
       <c r="AL58" t="str">
         <f t="shared" si="4"/>
@@ -9705,44 +9808,44 @@
       </c>
       <c r="BB58" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC58" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BD58" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BE58" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BF58" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BG58" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH58" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI58" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000056',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000059',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="59" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -9765,10 +9868,10 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="2" t="s">
+      <c r="W59" s="2"/>
+      <c r="X59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
@@ -9778,15 +9881,17 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="5">
+      <c r="AH59" s="5">
         <v>0</v>
       </c>
-      <c r="AJ59" s="4"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK59" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000057',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000060',NULL</v>
       </c>
       <c r="AL59" t="str">
         <f t="shared" si="4"/>
@@ -9883,15 +9988,15 @@
       <c r="BI59" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000057',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000060',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="60" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="21">
         <v>0</v>
@@ -9915,10 +10020,10 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2">
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2">
         <v>0</v>
       </c>
-      <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
@@ -9927,15 +10032,17 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
-      <c r="AH60" s="4"/>
-      <c r="AI60" s="5">
+      <c r="AH60" s="5">
         <v>0</v>
       </c>
-      <c r="AJ60" s="4"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK60" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000058',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000061',NULL</v>
       </c>
       <c r="AL60" t="str">
         <f t="shared" si="4"/>
@@ -10007,40 +10114,40 @@
       </c>
       <c r="BC60" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD60" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BE60" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BF60" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BG60" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
       </c>
       <c r="BH60" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI60" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000058',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000061',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="61" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="21">
         <v>1</v>
@@ -10064,10 +10171,10 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="2">
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2">
         <v>1</v>
       </c>
-      <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
@@ -10076,15 +10183,17 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
-      <c r="AH61" s="4"/>
-      <c r="AI61" s="5">
+      <c r="AH61" s="5">
         <v>1</v>
       </c>
-      <c r="AJ61" s="4"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK61" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000059',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000062',NULL</v>
       </c>
       <c r="AL61" t="str">
         <f t="shared" si="4"/>
@@ -10156,40 +10265,40 @@
       </c>
       <c r="BC61" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD61" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BE61" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BF61" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BG61" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
       </c>
       <c r="BH61" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI61" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000059',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000062',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="62" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -10213,10 +10322,10 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="2" t="s">
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
@@ -10225,15 +10334,17 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
-      <c r="AH62" s="4"/>
-      <c r="AI62" s="5">
+      <c r="AH62" s="5">
         <v>0</v>
       </c>
-      <c r="AJ62" s="4"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK62" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000060',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000063',NULL</v>
       </c>
       <c r="AL62" t="str">
         <f t="shared" si="4"/>
@@ -10330,18 +10441,18 @@
       <c r="BI62" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000060',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000063',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="63" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>89</v>
+    <row r="63" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B63" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="C63" s="2">
-        <v>28</v>
-      </c>
-      <c r="D63" s="21">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -10363,134 +10474,41 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-      <c r="Y63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA63" s="31">
+        <v>42735</v>
+      </c>
+      <c r="AB63" s="32" t="s">
+        <v>108</v>
+      </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000061',NULL</v>
-      </c>
-      <c r="AL63" t="str">
-        <f t="shared" si="4"/>
-        <v>NULL</v>
-      </c>
-      <c r="AM63" t="str">
-        <f t="shared" si="5"/>
-        <v>NULL,NULL</v>
-      </c>
-      <c r="AN63" t="str">
-        <f t="shared" si="6"/>
-        <v>NULL,NULL,NULL</v>
-      </c>
-      <c r="AO63" t="str">
-        <f t="shared" si="7"/>
-        <v>NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AP63" t="str">
-        <f t="shared" si="8"/>
-        <v>NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AQ63" t="str">
-        <f t="shared" si="9"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AR63" t="str">
-        <f t="shared" si="10"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AS63" t="str">
-        <f t="shared" si="11"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AT63" t="str">
-        <f t="shared" si="12"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AU63" t="str">
-        <f t="shared" si="13"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AV63" t="str">
-        <f t="shared" si="14"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AW63" t="str">
-        <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AX63" t="str">
-        <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AY63" t="str">
-        <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AZ63" t="str">
-        <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BA63" t="str">
-        <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BB63" t="str">
-        <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BC63" t="str">
-        <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BD63" t="str">
-        <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
-      </c>
-      <c r="BE63" t="str">
-        <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
-      </c>
-      <c r="BF63" t="str">
-        <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
-      </c>
-      <c r="BG63" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL</v>
-      </c>
-      <c r="BH63" s="18" t="str">
-        <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BI63" s="19" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000061',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL); </v>
-      </c>
+      <c r="AH63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK63" s="17"/>
+      <c r="BH63" s="18"/>
+      <c r="BI63" s="19"/>
     </row>
-    <row r="64" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="2">
-        <v>28</v>
-      </c>
-      <c r="D64" s="21">
-        <v>1</v>
+    <row r="64" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="24">
+        <v>29</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -10512,26 +10530,32 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA64" s="31">
+        <v>42735</v>
+      </c>
+      <c r="AB64" s="32" t="s">
+        <v>108</v>
+      </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
-      <c r="AH64" s="4"/>
-      <c r="AI64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="4"/>
+      <c r="AH64" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK64" s="17" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000062',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000065',NULL</v>
       </c>
       <c r="AL64" t="str">
         <f t="shared" si="4"/>
@@ -10607,39 +10631,39 @@
       </c>
       <c r="BD64" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE64" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X'</v>
       </c>
       <c r="BF64" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL</v>
       </c>
       <c r="BG64" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL,NULL</v>
       </c>
       <c r="BH64" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL,NULL,NULL</v>
       </c>
       <c r="BI64" s="19" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000062',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000065',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="65" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="2">
-        <v>28</v>
-      </c>
-      <c r="D65" s="21">
-        <v>0</v>
+    <row r="65" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B65" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="24">
+        <v>29</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -10661,130 +10685,134 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-      <c r="Y65" s="2" t="s">
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA65" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
+      <c r="AB65" s="25"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
-      <c r="AH65" s="4"/>
-      <c r="AI65" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="4"/>
+      <c r="AH65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK65" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AK65:AK75" si="31">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AE$1&amp;") VALUES ( " &amp;B65&amp;","&amp;(IF(OR(LEN(F65)=0,F65="missing"),"NULL",F65))</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000063',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000066',NULL</v>
       </c>
       <c r="AL65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AL65:AL75" si="32">(IF(OR(LEN(G65)=0,G65="missing"),"NULL",G65))</f>
         <v>NULL</v>
       </c>
       <c r="AM65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AM65:AM75" si="33">AL65&amp;","&amp;(IF(OR(LEN(H65)=0,H65="missing"),"NULL",H65))</f>
         <v>NULL,NULL</v>
       </c>
       <c r="AN65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AN65:AN75" si="34">AM65&amp;","&amp;(IF(OR(LEN(I65)=0,I65="missing"),"NULL",I65))</f>
         <v>NULL,NULL,NULL</v>
       </c>
       <c r="AO65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AO65:AO75" si="35">AN65&amp;","&amp;(IF(OR(LEN(J65)=0,J65="missing"),"NULL",J65))</f>
         <v>NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AP65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AP65:AP75" si="36">AO65&amp;","&amp;(IF(OR(LEN(K65)=0,K65="missing"),"NULL",K65))</f>
         <v>NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AQ65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AQ65:AQ75" si="37">AP65&amp;","&amp;(IF(OR(LEN(L65)=0,L65="missing"),"NULL",L65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AR65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AR65:AR75" si="38">AQ65&amp;","&amp;(IF(OR(LEN(M65)=0,M65="missing"),"NULL",M65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AS65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AS65:AS75" si="39">AR65&amp;","&amp;(IF(OR(LEN(N65)=0,N65="missing"),"NULL",N65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AT65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AT65:AT75" si="40">AS65&amp;","&amp;(IF(OR(LEN(O65)=0,O65="missing"),"NULL",O65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AU65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AU65:AU75" si="41">AT65&amp;","&amp;(IF(OR(LEN(P65)=0,P65="missing"),"NULL",P65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AV65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AV65:AV75" si="42">AU65&amp;","&amp;(IF(OR(LEN(Q65)=0,Q65="missing"),"NULL",Q65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AW65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AW65:AW75" si="43">AV65&amp;","&amp;(IF(OR(LEN(R65)=0,R65="missing"),"NULL",R65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AX65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AX65:AX75" si="44">AW65&amp;","&amp;(IF(OR(LEN(S65)=0,S65="missing"),"NULL",S65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AY65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AY65:AY75" si="45">AX65&amp;","&amp;(IF(OR(LEN(T65)=0,T65="missing"),"NULL",T65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AZ65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AZ65:AZ75" si="46">AY65&amp;","&amp;(IF(OR(LEN(U65)=0,U65="missing"),"NULL",U65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="BA65:BA75" si="47">AZ65&amp;","&amp;(IF(OR(LEN(V65)=0,V65="missing"),"NULL",V65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BB65:BB75" si="48">BA65&amp;","&amp;(IF(OR(LEN(W65)=0,W65="missing"),"NULL",W65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC65" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="BC65:BC75" si="49">BB65&amp;","&amp;(IF(OR(LEN(X65)=0,X65="missing"),"NULL",X65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD65" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="BD65:BD75" si="50">BC65&amp;","&amp;(IF(OR(LEN(Y65)=0,Y65="missing"),"NULL",Y65))</f>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE65" t="str">
-        <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <f t="shared" ref="BE65:BE75" si="51">BD65&amp;","&amp;(IF(OR(LEN(Z65)=0,Z65="missing"),"NULL",Z65))</f>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X'</v>
       </c>
       <c r="BF65" t="str">
-        <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <f t="shared" ref="BF65:BF75" si="52">BE65&amp;","&amp;(IF(OR(LEN(AC65)=0,AC65="missing"),"NULL",AC65))</f>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL</v>
       </c>
       <c r="BG65" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL,NULL</v>
       </c>
       <c r="BH65" s="18" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL,NULL,NULL</v>
       </c>
       <c r="BI65" s="19" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="BI65:BI75" si="53">AK65&amp;","&amp;BH65&amp;"); "</f>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000063',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000066',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="66" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B66" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="2">
+    <row r="66" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="24">
         <v>29</v>
       </c>
       <c r="D66" s="21" t="s">
@@ -10811,38 +10839,38 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA66" s="33">
-        <v>42735</v>
-      </c>
-      <c r="AB66" s="34" t="s">
-        <v>112</v>
-      </c>
+      <c r="Z66" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="25"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
-      <c r="AH66" s="4"/>
-      <c r="AI66" s="10" t="s">
+      <c r="AH66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ66" s="4"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK66" s="17"/>
       <c r="BH66" s="18"/>
       <c r="BI66" s="19"/>
     </row>
-    <row r="67" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="26">
-        <v>29</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>108</v>
+    <row r="67" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B67" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="24">
+        <v>31</v>
+      </c>
+      <c r="D67" s="21">
+        <v>0</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -10865,136 +10893,134 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA67" s="33">
-        <v>42735</v>
-      </c>
-      <c r="AB67" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
-      <c r="AH67" s="4"/>
-      <c r="AI67" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ67" s="4"/>
+      <c r="AH67" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK67" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000065',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000067',NULL</v>
       </c>
       <c r="AL67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>NULL</v>
       </c>
       <c r="AM67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>NULL,NULL</v>
       </c>
       <c r="AN67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>NULL,NULL,NULL</v>
       </c>
       <c r="AO67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AP67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AQ67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AR67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AS67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AT67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AU67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AV67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AW67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AX67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AY67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AZ67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA67" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB67" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC67" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD67" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE67" t="str">
-        <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X'</v>
+        <f t="shared" si="51"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF67" t="str">
-        <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL</v>
+        <f t="shared" si="52"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BG67" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BH67" s="18" t="str">
-        <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL,NULL,NULL</v>
+        <f t="shared" ref="BH67:BH75" si="54">BG67&amp;","&amp;(IF(OR(LEN(AE67)=0,AE67="missing"),"NULL",AE67))</f>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
       </c>
       <c r="BI67" s="19" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000065',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'X',NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000067',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL); </v>
       </c>
     </row>
-    <row r="68" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B68" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="26">
-        <v>29</v>
-      </c>
-      <c r="D68" s="21" t="s">
+    <row r="68" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2">
+        <v>31</v>
+      </c>
+      <c r="D68" s="21">
         <v>1</v>
       </c>
       <c r="E68" s="2"/>
@@ -11018,135 +11044,135 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA68" s="27" t="s">
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2">
         <v>1</v>
       </c>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
-      <c r="AH68" s="4"/>
-      <c r="AI68" s="5" t="s">
+      <c r="AH68" s="5">
         <v>1</v>
       </c>
-      <c r="AJ68" s="4"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK68" s="17" t="str">
-        <f t="shared" ref="AK68:AK78" si="31">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AE$1&amp;") VALUES ( " &amp;B68&amp;","&amp;(IF(OR(LEN(F68)=0,F68="missing"),"NULL",F68))</f>
+        <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000066',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000068',NULL</v>
       </c>
       <c r="AL68" t="str">
-        <f t="shared" ref="AL68:AL78" si="32">(IF(OR(LEN(G68)=0,G68="missing"),"NULL",G68))</f>
+        <f t="shared" si="32"/>
         <v>NULL</v>
       </c>
       <c r="AM68" t="str">
-        <f t="shared" ref="AM68:AM78" si="33">AL68&amp;","&amp;(IF(OR(LEN(H68)=0,H68="missing"),"NULL",H68))</f>
+        <f t="shared" si="33"/>
         <v>NULL,NULL</v>
       </c>
       <c r="AN68" t="str">
-        <f t="shared" ref="AN68:AN78" si="34">AM68&amp;","&amp;(IF(OR(LEN(I68)=0,I68="missing"),"NULL",I68))</f>
+        <f t="shared" si="34"/>
         <v>NULL,NULL,NULL</v>
       </c>
       <c r="AO68" t="str">
-        <f t="shared" ref="AO68:AO78" si="35">AN68&amp;","&amp;(IF(OR(LEN(J68)=0,J68="missing"),"NULL",J68))</f>
+        <f t="shared" si="35"/>
         <v>NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AP68" t="str">
-        <f t="shared" ref="AP68:AP78" si="36">AO68&amp;","&amp;(IF(OR(LEN(K68)=0,K68="missing"),"NULL",K68))</f>
+        <f t="shared" si="36"/>
         <v>NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AQ68" t="str">
-        <f t="shared" ref="AQ68:AQ78" si="37">AP68&amp;","&amp;(IF(OR(LEN(L68)=0,L68="missing"),"NULL",L68))</f>
+        <f t="shared" si="37"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AR68" t="str">
-        <f t="shared" ref="AR68:AR78" si="38">AQ68&amp;","&amp;(IF(OR(LEN(M68)=0,M68="missing"),"NULL",M68))</f>
+        <f t="shared" si="38"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AS68" t="str">
-        <f t="shared" ref="AS68:AS78" si="39">AR68&amp;","&amp;(IF(OR(LEN(N68)=0,N68="missing"),"NULL",N68))</f>
+        <f t="shared" si="39"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AT68" t="str">
-        <f t="shared" ref="AT68:AT78" si="40">AS68&amp;","&amp;(IF(OR(LEN(O68)=0,O68="missing"),"NULL",O68))</f>
+        <f t="shared" si="40"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AU68" t="str">
-        <f t="shared" ref="AU68:AU78" si="41">AT68&amp;","&amp;(IF(OR(LEN(P68)=0,P68="missing"),"NULL",P68))</f>
+        <f t="shared" si="41"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AV68" t="str">
-        <f t="shared" ref="AV68:AV78" si="42">AU68&amp;","&amp;(IF(OR(LEN(Q68)=0,Q68="missing"),"NULL",Q68))</f>
+        <f t="shared" si="42"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AW68" t="str">
-        <f t="shared" ref="AW68:AW78" si="43">AV68&amp;","&amp;(IF(OR(LEN(R68)=0,R68="missing"),"NULL",R68))</f>
+        <f t="shared" si="43"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AX68" t="str">
-        <f t="shared" ref="AX68:AX78" si="44">AW68&amp;","&amp;(IF(OR(LEN(S68)=0,S68="missing"),"NULL",S68))</f>
+        <f t="shared" si="44"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AY68" t="str">
-        <f t="shared" ref="AY68:AY78" si="45">AX68&amp;","&amp;(IF(OR(LEN(T68)=0,T68="missing"),"NULL",T68))</f>
+        <f t="shared" si="45"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="AZ68" t="str">
-        <f t="shared" ref="AZ68:AZ78" si="46">AY68&amp;","&amp;(IF(OR(LEN(U68)=0,U68="missing"),"NULL",U68))</f>
+        <f t="shared" si="46"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BA68" t="str">
-        <f t="shared" ref="BA68:BA78" si="47">AZ68&amp;","&amp;(IF(OR(LEN(V68)=0,V68="missing"),"NULL",V68))</f>
+        <f t="shared" si="47"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BB68" t="str">
-        <f t="shared" ref="BB68:BB78" si="48">BA68&amp;","&amp;(IF(OR(LEN(W68)=0,W68="missing"),"NULL",W68))</f>
+        <f t="shared" si="48"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BC68" t="str">
-        <f t="shared" ref="BC68:BC78" si="49">BB68&amp;","&amp;(IF(OR(LEN(X68)=0,X68="missing"),"NULL",X68))</f>
+        <f t="shared" si="49"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD68" t="str">
-        <f t="shared" ref="BD68:BD78" si="50">BC68&amp;","&amp;(IF(OR(LEN(Y68)=0,Y68="missing"),"NULL",Y68))</f>
+        <f t="shared" si="50"/>
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE68" t="str">
-        <f t="shared" ref="BE68:BE78" si="51">BD68&amp;","&amp;(IF(OR(LEN(Z68)=0,Z68="missing"),"NULL",Z68))</f>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X'</v>
+        <f t="shared" si="51"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF68" t="str">
-        <f t="shared" ref="BF68:BF78" si="52">BE68&amp;","&amp;(IF(OR(LEN(AC68)=0,AC68="missing"),"NULL",AC68))</f>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL</v>
+        <f t="shared" si="52"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BG68" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BH68" s="18" t="str">
-        <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL,NULL,NULL</v>
+        <f t="shared" si="54"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
       </c>
       <c r="BI68" s="19" t="str">
-        <f t="shared" ref="BI68:BI78" si="53">AK68&amp;","&amp;BH68&amp;"); "</f>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000066',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,X',NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000068',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL); </v>
       </c>
     </row>
-    <row r="69" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B69" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="26">
-        <v>29</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>1</v>
+    <row r="69" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="2">
+        <v>31</v>
+      </c>
+      <c r="D69" s="21">
+        <v>0</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -11169,33 +11195,132 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="28" t="s">
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA69" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
-      <c r="AH69" s="4"/>
-      <c r="AI69" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ69" s="4"/>
-      <c r="AK69" s="17"/>
-      <c r="BH69" s="18"/>
-      <c r="BI69" s="19"/>
+      <c r="AH69" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK69" s="17" t="str">
+        <f t="shared" si="31"/>
+        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000069',NULL</v>
+      </c>
+      <c r="AL69" t="str">
+        <f t="shared" si="32"/>
+        <v>NULL</v>
+      </c>
+      <c r="AM69" t="str">
+        <f t="shared" si="33"/>
+        <v>NULL,NULL</v>
+      </c>
+      <c r="AN69" t="str">
+        <f t="shared" si="34"/>
+        <v>NULL,NULL,NULL</v>
+      </c>
+      <c r="AO69" t="str">
+        <f t="shared" si="35"/>
+        <v>NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AP69" t="str">
+        <f t="shared" si="36"/>
+        <v>NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AQ69" t="str">
+        <f t="shared" si="37"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AR69" t="str">
+        <f t="shared" si="38"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AS69" t="str">
+        <f t="shared" si="39"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AT69" t="str">
+        <f t="shared" si="40"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AU69" t="str">
+        <f t="shared" si="41"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AV69" t="str">
+        <f t="shared" si="42"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AW69" t="str">
+        <f t="shared" si="43"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AX69" t="str">
+        <f t="shared" si="44"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AY69" t="str">
+        <f t="shared" si="45"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="AZ69" t="str">
+        <f t="shared" si="46"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BA69" t="str">
+        <f t="shared" si="47"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BB69" t="str">
+        <f t="shared" si="48"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BC69" t="str">
+        <f t="shared" si="49"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BD69" t="str">
+        <f t="shared" si="50"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BE69" t="str">
+        <f t="shared" si="51"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BF69" t="str">
+        <f t="shared" si="52"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BG69" t="str">
+        <f t="shared" si="30"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BH69" s="18" t="str">
+        <f t="shared" si="54"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+      </c>
+      <c r="BI69" s="19" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000069',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+      </c>
     </row>
-    <row r="70" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="26">
-        <v>31</v>
+    <row r="70" spans="2:61" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2">
+        <v>34</v>
       </c>
       <c r="D70" s="21">
         <v>0</v>
@@ -11224,22 +11349,24 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
-      <c r="AC70" s="2">
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2">
         <v>0</v>
       </c>
-      <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
-      <c r="AH70" s="4"/>
-      <c r="AI70" s="5">
+      <c r="AH70" s="5">
         <v>0</v>
       </c>
-      <c r="AJ70" s="4"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK70" s="17" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000067',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000070',NULL</v>
       </c>
       <c r="AL70" t="str">
         <f t="shared" si="32"/>
@@ -11323,28 +11450,28 @@
       </c>
       <c r="BF70" t="str">
         <f t="shared" si="52"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG70" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BH70" s="18" t="str">
-        <f t="shared" ref="BH70:BH78" si="54">BG70&amp;","&amp;(IF(OR(LEN(AE70)=0,AE70="missing"),"NULL",AE70))</f>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL</v>
+        <f t="shared" si="54"/>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
       </c>
       <c r="BI70" s="19" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000067',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000070',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL); </v>
       </c>
     </row>
-    <row r="71" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D71" s="21">
         <v>1</v>
@@ -11373,22 +11500,24 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
-      <c r="AC71" s="2">
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2">
         <v>1</v>
       </c>
-      <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
-      <c r="AH71" s="4"/>
-      <c r="AI71" s="5">
+      <c r="AH71" s="5">
         <v>1</v>
       </c>
-      <c r="AJ71" s="4"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK71" s="17" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000068',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000071',NULL</v>
       </c>
       <c r="AL71" t="str">
         <f t="shared" si="32"/>
@@ -11472,28 +11601,28 @@
       </c>
       <c r="BF71" t="str">
         <f t="shared" si="52"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG71" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BH71" s="18" t="str">
         <f t="shared" si="54"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
       </c>
       <c r="BI71" s="19" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000068',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000071',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL); </v>
       </c>
     </row>
-    <row r="72" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D72" s="21">
         <v>0</v>
@@ -11522,22 +11651,24 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
-      <c r="AC72" s="2" t="s">
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
-      <c r="AH72" s="4"/>
-      <c r="AI72" s="5">
+      <c r="AH72" s="5">
         <v>0</v>
       </c>
-      <c r="AJ72" s="4"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK72" s="17" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000069',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000072',NULL</v>
       </c>
       <c r="AL72" t="str">
         <f t="shared" si="32"/>
@@ -11634,15 +11765,15 @@
       <c r="BI72" s="19" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000069',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000072',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="73" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" s="21">
         <v>0</v>
@@ -11672,21 +11803,23 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="2">
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2">
         <v>0</v>
       </c>
-      <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
-      <c r="AH73" s="4"/>
-      <c r="AI73" s="5">
+      <c r="AH73" s="5">
         <v>0</v>
       </c>
-      <c r="AJ73" s="4"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK73" s="17" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000070',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000073',NULL</v>
       </c>
       <c r="AL73" t="str">
         <f t="shared" si="32"/>
@@ -11774,24 +11907,24 @@
       </c>
       <c r="BG73" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH73" s="18" t="str">
         <f t="shared" si="54"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
       </c>
       <c r="BI73" s="19" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000070',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000073',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0); </v>
       </c>
     </row>
-    <row r="74" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" s="21">
         <v>1</v>
@@ -11821,21 +11954,23 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="2">
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2">
         <v>1</v>
       </c>
-      <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
-      <c r="AH74" s="4"/>
-      <c r="AI74" s="5">
+      <c r="AH74" s="5">
         <v>1</v>
       </c>
-      <c r="AJ74" s="4"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK74" s="17" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000071',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000074',NULL</v>
       </c>
       <c r="AL74" t="str">
         <f t="shared" si="32"/>
@@ -11923,24 +12058,24 @@
       </c>
       <c r="BG74" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH74" s="18" t="str">
         <f t="shared" si="54"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
       </c>
       <c r="BI74" s="19" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000071',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL); </v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000074',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1); </v>
       </c>
     </row>
-    <row r="75" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:61" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" s="21">
         <v>0</v>
@@ -11970,21 +12105,23 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="2" t="s">
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
-      <c r="AH75" s="4"/>
-      <c r="AI75" s="5">
+      <c r="AH75" s="5">
         <v>0</v>
       </c>
-      <c r="AJ75" s="4"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AK75" s="17" t="str">
         <f t="shared" si="31"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000072',NULL</v>
+,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000075',NULL</v>
       </c>
       <c r="AL75" t="str">
         <f t="shared" si="32"/>
@@ -12079,453 +12216,6 @@
         <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI75" s="19" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000072',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
-      </c>
-    </row>
-    <row r="76" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="2">
-        <v>35</v>
-      </c>
-      <c r="D76" s="21">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="17" t="str">
-        <f t="shared" si="31"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000073',NULL</v>
-      </c>
-      <c r="AL76" t="str">
-        <f t="shared" si="32"/>
-        <v>NULL</v>
-      </c>
-      <c r="AM76" t="str">
-        <f t="shared" si="33"/>
-        <v>NULL,NULL</v>
-      </c>
-      <c r="AN76" t="str">
-        <f t="shared" si="34"/>
-        <v>NULL,NULL,NULL</v>
-      </c>
-      <c r="AO76" t="str">
-        <f t="shared" si="35"/>
-        <v>NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AP76" t="str">
-        <f t="shared" si="36"/>
-        <v>NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AQ76" t="str">
-        <f t="shared" si="37"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AR76" t="str">
-        <f t="shared" si="38"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AS76" t="str">
-        <f t="shared" si="39"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AT76" t="str">
-        <f t="shared" si="40"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AU76" t="str">
-        <f t="shared" si="41"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AV76" t="str">
-        <f t="shared" si="42"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AW76" t="str">
-        <f t="shared" si="43"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AX76" t="str">
-        <f t="shared" si="44"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AY76" t="str">
-        <f t="shared" si="45"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AZ76" t="str">
-        <f t="shared" si="46"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BA76" t="str">
-        <f t="shared" si="47"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BB76" t="str">
-        <f t="shared" si="48"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BC76" t="str">
-        <f t="shared" si="49"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BD76" t="str">
-        <f t="shared" si="50"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BE76" t="str">
-        <f t="shared" si="51"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BF76" t="str">
-        <f t="shared" si="52"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BG76" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BH76" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0</v>
-      </c>
-      <c r="BI76" s="19" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000073',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0); </v>
-      </c>
-    </row>
-    <row r="77" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="2">
-        <v>35</v>
-      </c>
-      <c r="D77" s="21">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="4"/>
-      <c r="AI77" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="17" t="str">
-        <f t="shared" si="31"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000074',NULL</v>
-      </c>
-      <c r="AL77" t="str">
-        <f t="shared" si="32"/>
-        <v>NULL</v>
-      </c>
-      <c r="AM77" t="str">
-        <f t="shared" si="33"/>
-        <v>NULL,NULL</v>
-      </c>
-      <c r="AN77" t="str">
-        <f t="shared" si="34"/>
-        <v>NULL,NULL,NULL</v>
-      </c>
-      <c r="AO77" t="str">
-        <f t="shared" si="35"/>
-        <v>NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AP77" t="str">
-        <f t="shared" si="36"/>
-        <v>NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AQ77" t="str">
-        <f t="shared" si="37"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AR77" t="str">
-        <f t="shared" si="38"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AS77" t="str">
-        <f t="shared" si="39"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AT77" t="str">
-        <f t="shared" si="40"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AU77" t="str">
-        <f t="shared" si="41"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AV77" t="str">
-        <f t="shared" si="42"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AW77" t="str">
-        <f t="shared" si="43"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AX77" t="str">
-        <f t="shared" si="44"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AY77" t="str">
-        <f t="shared" si="45"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AZ77" t="str">
-        <f t="shared" si="46"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BA77" t="str">
-        <f t="shared" si="47"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BB77" t="str">
-        <f t="shared" si="48"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BC77" t="str">
-        <f t="shared" si="49"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BD77" t="str">
-        <f t="shared" si="50"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BE77" t="str">
-        <f t="shared" si="51"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BF77" t="str">
-        <f t="shared" si="52"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BG77" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BH77" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1</v>
-      </c>
-      <c r="BI77" s="19" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000074',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1); </v>
-      </c>
-    </row>
-    <row r="78" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="2">
-        <v>35</v>
-      </c>
-      <c r="D78" s="21">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="4"/>
-      <c r="AI78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="4"/>
-      <c r="AK78" s="17" t="str">
-        <f t="shared" si="31"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
-,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000075',NULL</v>
-      </c>
-      <c r="AL78" t="str">
-        <f t="shared" si="32"/>
-        <v>NULL</v>
-      </c>
-      <c r="AM78" t="str">
-        <f t="shared" si="33"/>
-        <v>NULL,NULL</v>
-      </c>
-      <c r="AN78" t="str">
-        <f t="shared" si="34"/>
-        <v>NULL,NULL,NULL</v>
-      </c>
-      <c r="AO78" t="str">
-        <f t="shared" si="35"/>
-        <v>NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AP78" t="str">
-        <f t="shared" si="36"/>
-        <v>NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AQ78" t="str">
-        <f t="shared" si="37"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AR78" t="str">
-        <f t="shared" si="38"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AS78" t="str">
-        <f t="shared" si="39"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AT78" t="str">
-        <f t="shared" si="40"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AU78" t="str">
-        <f t="shared" si="41"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AV78" t="str">
-        <f t="shared" si="42"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AW78" t="str">
-        <f t="shared" si="43"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AX78" t="str">
-        <f t="shared" si="44"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AY78" t="str">
-        <f t="shared" si="45"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="AZ78" t="str">
-        <f t="shared" si="46"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BA78" t="str">
-        <f t="shared" si="47"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BB78" t="str">
-        <f t="shared" si="48"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BC78" t="str">
-        <f t="shared" si="49"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BD78" t="str">
-        <f t="shared" si="50"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BE78" t="str">
-        <f t="shared" si="51"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BF78" t="str">
-        <f t="shared" si="52"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BG78" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BH78" s="18" t="str">
-        <f t="shared" si="54"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
-      </c>
-      <c r="BI78" s="19" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,FLG_CRR_DEFAULT,FLG_PAST_DUE,FLG_FORBORNE_NPE,FLG_PROTEST,FLG_PROP_SETTLEMENT,IMP_NON_PERF_LOANS_SYSTEM,IMP_NON_PERF_LOANS_GROUP,IMP_CREDIT_FACILITY_TOT,IMP_CREDIT_USED_TOT,FLG_ISDA_CREDIT_EVENT_DECL_CDS ,FLG_NOPG_S50_RIF,FLG_JD_NEG_EV_PERS,FLG_JD_DECANAL_PTF,FLG_JD_REATI_GRAVI,FLG_NOPG_AN_RIF,FLG_NOPG_AR_RIF,FLG_JD_DEBT_PUBBLI,FLG_JD_PASTDUE_PUBCRED_EMPL,FLG_JD_COLLATER_VAL_DECR,FLG_JD_DELTA_CASHFLOW,FLG_ROTTURA_COVE
 ,FLG_COV_NON_RISP_SAN,FLG_JD_INCROCIO_ASSEGNI,FLG_JD_REATI_GRAVI_FAM) VALUES ( '0000000000000075',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
